--- a/test-data/json-to-excel/excel/excel-output.xlsx
+++ b/test-data/json-to-excel/excel/excel-output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -444,16 +444,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025-02-27 12:12</v>
+        <v>2025-02-27 12:16</v>
       </c>
       <c r="B3" t="str">
-        <v>1 mal, zuletzt: 2025-02-27 12:13</v>
+        <v>1 mal, zuletzt: 2025-02-27 12:20</v>
       </c>
       <c r="D3" t="str">
-        <v>1706d2d7-b6e8-4c5a-bbc1-12ed2172b238</v>
+        <v>83fae4be-7949-4180-a59b-21a736df89ab</v>
       </c>
       <c r="E3" t="str">
-        <v>data 1</v>
+        <v>data 2</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -461,75 +461,24 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025-02-27 12:16</v>
+        <v>2025-02-27 12:13</v>
       </c>
       <c r="B4" t="str">
-        <v>1 mal, zuletzt: 2025-02-27 12:20</v>
+        <v>1 mal, zuletzt: 2025-02-27 12:14</v>
       </c>
       <c r="D4" t="str">
-        <v>83fae4be-7949-4180-a59b-21a736df89ab</v>
+        <v>cde94ce9-a9c9-4834-8111-d4b66d0c53aa</v>
       </c>
       <c r="E4" t="str">
-        <v>data 2</v>
+        <v>data 3</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>2025-02-27 12:16</v>
-      </c>
-      <c r="B5" t="str">
-        <v>1 mal, zuletzt: 2025-02-27 12:20</v>
-      </c>
-      <c r="D5" t="str">
-        <v>83fae4be-7949-4180-a59b-21a736df89ab</v>
-      </c>
-      <c r="E5" t="str">
-        <v>data 2</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>2025-02-27 12:13</v>
-      </c>
-      <c r="B6" t="str">
-        <v>1 mal, zuletzt: 2025-02-27 12:14</v>
-      </c>
-      <c r="D6" t="str">
-        <v>cde94ce9-a9c9-4834-8111-d4b66d0c53aa</v>
-      </c>
-      <c r="E6" t="str">
-        <v>data 3</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>2025-02-27 12:13</v>
-      </c>
-      <c r="B7" t="str">
-        <v>1 mal, zuletzt: 2025-02-27 12:14</v>
-      </c>
-      <c r="D7" t="str">
-        <v>cde94ce9-a9c9-4834-8111-d4b66d0c53aa</v>
-      </c>
-      <c r="E7" t="str">
-        <v>data 3</v>
-      </c>
-      <c r="F7" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test-data/json-to-excel/excel/excel-output.xlsx
+++ b/test-data/json-to-excel/excel/excel-output.xlsx
@@ -425,13 +425,17 @@
         <v>data_array_string</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
         <v>2025-02-27 12:12</v>
       </c>
       <c r="B2" t="str">
         <v>1 mal, zuletzt: 2025-02-27 12:13</v>
       </c>
+      <c r="C2" t="str" xml:space="preserve">
+        <v xml:space="preserve">{"dateModified":"2025-02-27 12:12","who":"minime","what":"angelegt","details":"Neu angelegt."}
+{"dateModified":"2025-02-27 12:13","who":"user1","what":"geändert","details":"Das Dokument wurde geändert."}</v>
+      </c>
       <c r="D2" t="str">
         <v>1706d2d7-b6e8-4c5a-bbc1-12ed2172b238</v>
       </c>
@@ -441,14 +445,21 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
         <v>2025-02-27 12:16</v>
       </c>
       <c r="B3" t="str">
         <v>1 mal, zuletzt: 2025-02-27 12:20</v>
       </c>
+      <c r="C3" t="str" xml:space="preserve">
+        <v xml:space="preserve">{"dateModified":"2025-02-27 12:16","who":"minnime","what":"angelegt","details":"Neu angelegt."}
+{"dateModified":"2025-02-27 12:20","who":"user2","what":"geändert","details":"Das Dokument wurde geändert."}</v>
+      </c>
       <c r="D3" t="str">
         <v>83fae4be-7949-4180-a59b-21a736df89ab</v>
       </c>
@@ -458,14 +469,21 @@
       <c r="F3" t="b">
         <v>1</v>
       </c>
+      <c r="G3" t="str">
+        <v>data_array 2-1, data_array2-2</v>
+      </c>
     </row>
-    <row r="4">
+    <row r="4" xml:space="preserve">
       <c r="A4" t="str">
         <v>2025-02-27 12:13</v>
       </c>
       <c r="B4" t="str">
         <v>1 mal, zuletzt: 2025-02-27 12:14</v>
       </c>
+      <c r="C4" t="str" xml:space="preserve">
+        <v xml:space="preserve">{"dateModified":"2025-02-27 12:13","who":"minnime","what":"angelegt","details":"Neu angelegt."}
+{"dateModified":"2025-02-27 12:14","who":"user3","what":"geändert","details":"Das Dokument wurde geändert."}</v>
+      </c>
       <c r="D4" t="str">
         <v>cde94ce9-a9c9-4834-8111-d4b66d0c53aa</v>
       </c>
@@ -474,6 +492,9 @@
       </c>
       <c r="F4" t="b">
         <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <v>data_array 3-1, data_array3-2, data_array3-3</v>
       </c>
     </row>
   </sheetData>

--- a/test-data/json-to-excel/excel/excel-output.xlsx
+++ b/test-data/json-to-excel/excel/excel-output.xlsx
@@ -442,8 +442,8 @@
       <c r="E2" t="str">
         <v>data 1</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" t="str">
+        <v>yes</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -466,8 +466,8 @@
       <c r="E3" t="str">
         <v>data 2</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
+      <c r="F3" t="str">
+        <v>yes</v>
       </c>
       <c r="G3" t="str">
         <v>data_array 2-1, data_array2-2</v>
@@ -490,8 +490,8 @@
       <c r="E4" t="str">
         <v>data 3</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="F4" t="str">
+        <v>yes</v>
       </c>
       <c r="G4" t="str">
         <v>data_array 3-1, data_array3-2, data_array3-3</v>

--- a/test-data/json-to-excel/excel/excel-output.xlsx
+++ b/test-data/json-to-excel/excel/excel-output.xlsx
@@ -397,109 +397,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>dateCreated</v>
+        <v>dateModified</v>
       </c>
       <c r="B1" t="str">
-        <v>dateModified</v>
+        <v>protocol</v>
       </c>
       <c r="C1" t="str">
-        <v>protocol</v>
+        <v>uuid</v>
       </c>
       <c r="D1" t="str">
-        <v>uuid</v>
+        <v>data</v>
       </c>
       <c r="E1" t="str">
-        <v>data</v>
+        <v>data_boolean</v>
       </c>
       <c r="F1" t="str">
-        <v>data_boolean</v>
-      </c>
-      <c r="G1" t="str">
         <v>data_array_string</v>
       </c>
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>2025-02-27 12:12</v>
-      </c>
-      <c r="B2" t="str">
         <v>1 mal, zuletzt: 2025-02-27 12:13</v>
       </c>
-      <c r="C2" t="str" xml:space="preserve">
+      <c r="B2" t="str" xml:space="preserve">
         <v xml:space="preserve">{"dateModified":"2025-02-27 12:12","who":"minime","what":"angelegt","details":"Neu angelegt."}
 {"dateModified":"2025-02-27 12:13","who":"user1","what":"geändert","details":"Das Dokument wurde geändert."}</v>
       </c>
+      <c r="C2" t="str">
+        <v>1706d2d7-b6e8-4c5a-bbc1-12ed2172b238</v>
+      </c>
       <c r="D2" t="str">
-        <v>1706d2d7-b6e8-4c5a-bbc1-12ed2172b238</v>
+        <v>data 1</v>
       </c>
       <c r="E2" t="str">
-        <v>data 1</v>
+        <v>yes</v>
       </c>
       <c r="F2" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G2" t="str">
         <v/>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>2025-02-27 12:16</v>
-      </c>
-      <c r="B3" t="str">
         <v>1 mal, zuletzt: 2025-02-27 12:20</v>
       </c>
-      <c r="C3" t="str" xml:space="preserve">
+      <c r="B3" t="str" xml:space="preserve">
         <v xml:space="preserve">{"dateModified":"2025-02-27 12:16","who":"minnime","what":"angelegt","details":"Neu angelegt."}
 {"dateModified":"2025-02-27 12:20","who":"user2","what":"geändert","details":"Das Dokument wurde geändert."}</v>
       </c>
+      <c r="C3" t="str">
+        <v>83fae4be-7949-4180-a59b-21a736df89ab</v>
+      </c>
       <c r="D3" t="str">
-        <v>83fae4be-7949-4180-a59b-21a736df89ab</v>
+        <v>data 2</v>
       </c>
       <c r="E3" t="str">
-        <v>data 2</v>
+        <v>yes</v>
       </c>
       <c r="F3" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G3" t="str">
         <v>data_array 2-1, data_array2-2</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>2025-02-27 12:13</v>
-      </c>
-      <c r="B4" t="str">
         <v>1 mal, zuletzt: 2025-02-27 12:14</v>
       </c>
-      <c r="C4" t="str" xml:space="preserve">
+      <c r="B4" t="str" xml:space="preserve">
         <v xml:space="preserve">{"dateModified":"2025-02-27 12:13","who":"minnime","what":"angelegt","details":"Neu angelegt."}
 {"dateModified":"2025-02-27 12:14","who":"user3","what":"geändert","details":"Das Dokument wurde geändert."}</v>
       </c>
+      <c r="C4" t="str">
+        <v>cde94ce9-a9c9-4834-8111-d4b66d0c53aa</v>
+      </c>
       <c r="D4" t="str">
-        <v>cde94ce9-a9c9-4834-8111-d4b66d0c53aa</v>
+        <v>data 3</v>
       </c>
       <c r="E4" t="str">
-        <v>data 3</v>
+        <v>yes</v>
       </c>
       <c r="F4" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G4" t="str">
         <v>data_array 3-1, data_array3-2, data_array3-3</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>